--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100367.976735866</v>
+        <v>97929.50363611973</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12475914.88262718</v>
+        <v>12475914.88262717</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>307.0284381244518</v>
       </c>
       <c r="D2" t="n">
-        <v>247.4431140887369</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>372.2657095921604</v>
+        <v>203.4926237682705</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>208.4478746889071</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.45713216103701</v>
+        <v>278.1429131767404</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>53.10267883198525</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271565</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>78.3789243136126</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>79.54581243241704</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>179.5894163182172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>16.92025364381658</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833768</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.0791635910592</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890387</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428303</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>284.5176850257126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6895341487364</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5313457611372</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.061124352531</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1032.061124352531</v>
+        <v>611.6407204003823</v>
       </c>
       <c r="D2" t="n">
-        <v>782.118584868958</v>
+        <v>611.6407204003823</v>
       </c>
       <c r="E2" t="n">
-        <v>782.118584868958</v>
+        <v>611.6407204003823</v>
       </c>
       <c r="F2" t="n">
-        <v>782.118584868958</v>
+        <v>611.6407204003823</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1626.910682069347</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1626.910682069347</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.22619386346</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943747</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621296</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>711.2880532342227</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>561.171413821887</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>413.2583202394939</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>266.3683727415835</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>266.3683727415835</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>120.1511859594412</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4762,13 +4762,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2676.636298174514</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.0642295677645</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>382.1280466398576</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>953.5052735415344</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>953.5052735415344</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>732.7126943980043</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380867</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611857</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683265</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,22 +5525,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311999</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032972</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909614</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1191.213173842396</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614396</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5276345711983</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711983</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711983</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888052</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908948</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057747</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1146.309764612746</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>918.3202137147284</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.5276345711983</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,34 +6361,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6932,37 +6932,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655575</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>38.65601606129301</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.6952193743958</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788618</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.44497470120965</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864822</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.005313310878421</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9259388694759707</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570752</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
@@ -26338,7 +26338,7 @@
         <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.304868253</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682528</v>
@@ -26347,13 +26347,13 @@
         <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551203</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554107</v>
+        <v>50848.9031355411</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26439,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1170271.713283841</v>
+        <v>-1170458.10667238</v>
       </c>
       <c r="C6" t="n">
         <v>147605.0247827208</v>
@@ -26528,40 +26528,40 @@
         <v>147605.0247827208</v>
       </c>
       <c r="E6" t="n">
-        <v>-97714.43883986473</v>
+        <v>-97749.1767653006</v>
       </c>
       <c r="F6" t="n">
-        <v>227698.0229674906</v>
+        <v>227663.2850420548</v>
       </c>
       <c r="G6" t="n">
-        <v>227698.0229674903</v>
+        <v>227663.285042055</v>
       </c>
       <c r="H6" t="n">
-        <v>227698.0229674908</v>
+        <v>227663.2850420548</v>
       </c>
       <c r="I6" t="n">
-        <v>227698.0229674908</v>
+        <v>227663.2850420551</v>
       </c>
       <c r="J6" t="n">
-        <v>10166.82057021309</v>
+        <v>10132.08264477752</v>
       </c>
       <c r="K6" t="n">
-        <v>227698.0229674906</v>
+        <v>227663.2850420549</v>
       </c>
       <c r="L6" t="n">
-        <v>227698.0229674907</v>
+        <v>227663.2850420549</v>
       </c>
       <c r="M6" t="n">
-        <v>142642.9950319786</v>
+        <v>142608.2571065431</v>
       </c>
       <c r="N6" t="n">
-        <v>227698.0229674905</v>
+        <v>227663.2850420549</v>
       </c>
       <c r="O6" t="n">
-        <v>227698.0229674908</v>
+        <v>227663.2850420549</v>
       </c>
       <c r="P6" t="n">
-        <v>227698.0229674904</v>
+        <v>227663.2850420549</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,13 +26984,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>107.2399275319461</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.429101885183</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.85778156328857</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.10107458726205</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4732379112248</v>
+        <v>103.7874568955214</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>43.24974157785284</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174543</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>270.8620444038004</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.0031368437521</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>106.9335820183738</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30223,13 +30223,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775321</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.2222086167877</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941988</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334544</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066261</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
